--- a/xlsx/s_RobotData.xlsx
+++ b/xlsx/s_RobotData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C50A99-6CA6-4B18-9E01-BA251938E9E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C2B11-CA4F-41D3-AA5E-F3D0F4A6D11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6405" yWindow="2550" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,10 @@
   </si>
   <si>
     <t>groupId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1261,173 +1265,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5">
         <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
+      <c r="E6" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
+      <c r="E7" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
+      <c r="E8" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
+      <c r="E10" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/s_RobotData.xlsx
+++ b/xlsx/s_RobotData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C2B11-CA4F-41D3-AA5E-F3D0F4A6D11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C18B7-950F-4BF9-8C6C-8F2616ACA01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="2550" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="2355" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1265,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A94" sqref="A94:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1447,6 +1447,1236 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+      <c r="E93" s="5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/s_RobotData.xlsx
+++ b/xlsx/s_RobotData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C18B7-950F-4BF9-8C6C-8F2616ACA01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD186DE-F8AF-482B-A376-E7AC54486283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2355" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1275" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BOSS</t>
+    <t>level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1265,22 +1265,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD98"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1288,33 +1289,37 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5">
@@ -1324,12 +1329,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5">
@@ -1339,12 +1347,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5">
@@ -1356,85 +1367,103 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="5">
@@ -1446,1234 +1475,1465 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
       <c r="D29" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="5">
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="5">
         <v>1</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="5">
         <v>1</v>
       </c>
       <c r="D34" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="5">
         <v>1</v>
       </c>
       <c r="D38" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E38" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="5">
         <v>1</v>
       </c>
       <c r="D39" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="5">
         <v>1</v>
       </c>
       <c r="D40" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="5">
         <v>1</v>
       </c>
       <c r="D41" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="5">
         <v>1</v>
       </c>
       <c r="D42" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
       <c r="D44" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="5">
         <v>1</v>
       </c>
       <c r="D45" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="5">
         <v>1</v>
       </c>
       <c r="D46" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E47" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="5">
         <v>1</v>
       </c>
       <c r="D49" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="5">
         <v>1</v>
       </c>
       <c r="D50" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="5">
         <v>1</v>
       </c>
       <c r="D51" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="5">
         <v>1</v>
       </c>
       <c r="D56" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E56" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="5">
         <v>1</v>
       </c>
       <c r="D57" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="5">
         <v>1</v>
       </c>
       <c r="D58" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="5">
         <v>1</v>
       </c>
       <c r="D59" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="5">
         <v>1</v>
       </c>
       <c r="D60" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="5">
         <v>1</v>
       </c>
       <c r="D62" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="5">
         <v>1</v>
       </c>
       <c r="D63" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="5">
         <v>1</v>
       </c>
       <c r="D64" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="5">
         <v>1</v>
       </c>
       <c r="D66" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E66" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="5">
         <v>1</v>
       </c>
       <c r="D68" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="5">
         <v>1</v>
       </c>
       <c r="D72" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="5">
         <v>1</v>
       </c>
       <c r="D73" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="5">
         <v>1</v>
       </c>
       <c r="D74" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="5">
         <v>1</v>
       </c>
       <c r="D75" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E75" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="5">
         <v>1</v>
       </c>
       <c r="D76" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="5">
         <v>1</v>
       </c>
       <c r="D77" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="5">
         <v>1</v>
       </c>
       <c r="D78" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="5">
         <v>1</v>
       </c>
       <c r="D79" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="5">
         <v>1</v>
       </c>
       <c r="D80" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E80" s="5">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="5">
         <v>1</v>
       </c>
       <c r="D81" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="5">
         <v>1</v>
       </c>
       <c r="D82" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E82" s="5">
+        <v>0</v>
+      </c>
+      <c r="F82" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="5">
         <v>1</v>
       </c>
       <c r="D83" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="5">
         <v>1</v>
       </c>
       <c r="D84" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E84" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="5">
         <v>1</v>
       </c>
       <c r="D85" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="5">
         <v>1</v>
       </c>
       <c r="D86" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="5">
         <v>1</v>
       </c>
       <c r="D87" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="5">
         <v>1</v>
       </c>
       <c r="D88" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="5">
         <v>1</v>
       </c>
       <c r="D89" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="5">
         <v>1</v>
       </c>
       <c r="D90" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E90" s="5">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="5">
         <v>1</v>
       </c>
       <c r="D91" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="5">
         <v>1</v>
       </c>
       <c r="D92" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E92" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="5">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5">
-        <v>0</v>
-      </c>
-      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
         <v>9</v>
       </c>
     </row>

--- a/xlsx/s_RobotData.xlsx
+++ b/xlsx/s_RobotData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD186DE-F8AF-482B-A376-E7AC54486283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B896C3-E20C-4F45-8454-3349142DB0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1275" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>

--- a/xlsx/s_RobotData.xlsx
+++ b/xlsx/s_RobotData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B896C3-E20C-4F45-8454-3349142DB0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC5978-5A64-4ED4-A1B9-5C0386C3DFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="1335" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>

--- a/xlsx/s_RobotData.xlsx
+++ b/xlsx/s_RobotData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC5978-5A64-4ED4-A1B9-5C0386C3DFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67838D70-B7B7-4ED8-9AD8-DC2729AD5FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1335" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2595" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Z'hang'Q'i'chao</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{52CC1378-2DC1-4F43-8B21-C16525AE6D16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Z'hang'Q'i'chao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+吃一条鱼的成长率，100为标准</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -38,12 +74,16 @@
     <t>level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -58,6 +98,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1264,24 +1319,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="4" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1292,14 +1347,17 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1311,13 +1369,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1329,13 +1390,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1347,13 +1411,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1365,13 +1432,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1383,13 +1453,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1401,13 +1474,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1419,13 +1495,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1437,13 +1516,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1455,13 +1537,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1473,13 +1558,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1491,13 +1579,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1509,13 +1600,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1527,13 +1621,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1545,13 +1642,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1563,13 +1663,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1581,13 +1684,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1599,13 +1705,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1617,13 +1726,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1635,13 +1747,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1653,13 +1768,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1671,13 +1789,16 @@
         <v>3</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1689,13 +1810,16 @@
         <v>3</v>
       </c>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1707,13 +1831,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1725,13 +1852,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1743,13 +1873,16 @@
         <v>3</v>
       </c>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1761,13 +1894,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1779,13 +1915,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1797,13 +1936,16 @@
         <v>4</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1815,13 +1957,16 @@
         <v>4</v>
       </c>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1833,13 +1978,16 @@
         <v>4</v>
       </c>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1851,13 +1999,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1869,13 +2020,16 @@
         <v>4</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1887,13 +2041,16 @@
         <v>4</v>
       </c>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1905,13 +2062,16 @@
         <v>4</v>
       </c>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1923,13 +2083,16 @@
         <v>4</v>
       </c>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1941,13 +2104,16 @@
         <v>4</v>
       </c>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1959,13 +2125,16 @@
         <v>5</v>
       </c>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1977,13 +2146,16 @@
         <v>5</v>
       </c>
       <c r="E39" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1995,13 +2167,16 @@
         <v>5</v>
       </c>
       <c r="E40" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2013,13 +2188,16 @@
         <v>5</v>
       </c>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2031,13 +2209,16 @@
         <v>5</v>
       </c>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2049,13 +2230,16 @@
         <v>5</v>
       </c>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2067,13 +2251,16 @@
         <v>5</v>
       </c>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2085,13 +2272,16 @@
         <v>5</v>
       </c>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2103,13 +2293,16 @@
         <v>5</v>
       </c>
       <c r="E46" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2121,13 +2314,16 @@
         <v>6</v>
       </c>
       <c r="E47" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2139,13 +2335,16 @@
         <v>6</v>
       </c>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2157,13 +2356,16 @@
         <v>6</v>
       </c>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2175,13 +2377,16 @@
         <v>6</v>
       </c>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2193,13 +2398,16 @@
         <v>6</v>
       </c>
       <c r="E51" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2211,13 +2419,16 @@
         <v>6</v>
       </c>
       <c r="E52" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2229,13 +2440,16 @@
         <v>6</v>
       </c>
       <c r="E53" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2247,13 +2461,16 @@
         <v>6</v>
       </c>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2265,13 +2482,16 @@
         <v>6</v>
       </c>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2283,13 +2503,16 @@
         <v>6</v>
       </c>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2301,13 +2524,16 @@
         <v>7</v>
       </c>
       <c r="E57" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2319,13 +2545,16 @@
         <v>7</v>
       </c>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2337,13 +2566,16 @@
         <v>7</v>
       </c>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2355,13 +2587,16 @@
         <v>7</v>
       </c>
       <c r="E60" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2373,13 +2608,16 @@
         <v>7</v>
       </c>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2391,13 +2629,16 @@
         <v>7</v>
       </c>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2409,13 +2650,16 @@
         <v>7</v>
       </c>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2427,13 +2671,16 @@
         <v>7</v>
       </c>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2445,13 +2692,16 @@
         <v>7</v>
       </c>
       <c r="E65" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2463,13 +2713,16 @@
         <v>8</v>
       </c>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2481,13 +2734,16 @@
         <v>8</v>
       </c>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2499,13 +2755,16 @@
         <v>8</v>
       </c>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2517,13 +2776,16 @@
         <v>8</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2535,13 +2797,16 @@
         <v>8</v>
       </c>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2553,13 +2818,16 @@
         <v>8</v>
       </c>
       <c r="E71" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2571,13 +2839,16 @@
         <v>8</v>
       </c>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2589,13 +2860,16 @@
         <v>8</v>
       </c>
       <c r="E73" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2607,13 +2881,16 @@
         <v>8</v>
       </c>
       <c r="E74" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2625,13 +2902,16 @@
         <v>9</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2643,13 +2923,16 @@
         <v>9</v>
       </c>
       <c r="E76" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2661,13 +2944,16 @@
         <v>9</v>
       </c>
       <c r="E77" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2679,13 +2965,16 @@
         <v>9</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2697,13 +2986,16 @@
         <v>9</v>
       </c>
       <c r="E79" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2715,13 +3007,16 @@
         <v>9</v>
       </c>
       <c r="E80" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2733,13 +3028,16 @@
         <v>9</v>
       </c>
       <c r="E81" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2751,13 +3049,16 @@
         <v>9</v>
       </c>
       <c r="E82" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2769,13 +3070,16 @@
         <v>9</v>
       </c>
       <c r="E83" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2787,13 +3091,16 @@
         <v>9</v>
       </c>
       <c r="E84" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2805,13 +3112,16 @@
         <v>9</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2823,13 +3133,16 @@
         <v>9</v>
       </c>
       <c r="E86" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2841,13 +3154,16 @@
         <v>9</v>
       </c>
       <c r="E87" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2859,13 +3175,16 @@
         <v>9</v>
       </c>
       <c r="E88" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2877,13 +3196,16 @@
         <v>9</v>
       </c>
       <c r="E89" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2895,13 +3217,16 @@
         <v>9</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2913,13 +3238,16 @@
         <v>9</v>
       </c>
       <c r="E91" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2931,9 +3259,12 @@
         <v>9</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
         <v>9</v>
       </c>
     </row>
@@ -2944,5 +3275,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>